--- a/LF/PreTAS/Nigeria/june 2024/ng_lf_pretas_202406_2_resultat_fts.xlsx
+++ b/LF/PreTAS/Nigeria/june 2024/ng_lf_pretas_202406_2_resultat_fts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Nigeria\june 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BB8B96-3701-4854-AB82-872A69A57E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95E6B9E-5D21-420B-981E-BEC1BCA6B56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="160">
   <si>
     <t>type</t>
   </si>
@@ -493,12 +493,6 @@
 )</t>
   </si>
   <si>
-    <t>ng_lf_pretas_202406_2_resultat_fts</t>
-  </si>
-  <si>
-    <t>(June 2024) - 2. Nigeria - Pre TAS LF FTS Form</t>
-  </si>
-  <si>
     <t>d_nbr_participant</t>
   </si>
   <si>
@@ -514,19 +508,16 @@
     <t>${d_nbr_participant}</t>
   </si>
   <si>
-    <t>d_index</t>
-  </si>
-  <si>
-    <t>Index of partcipant</t>
-  </si>
-  <si>
     <t>d_recorder</t>
   </si>
   <si>
-    <t>concat(${d_recorder}, '_', ${d_cluster_id}, '_', ${d_index})</t>
-  </si>
-  <si>
-    <t>ng_pretas_fts_2406</t>
+    <t>(June 2024) - 2. Nigeria - Pre TAS LF FTS Form V2</t>
+  </si>
+  <si>
+    <t>ng_pretas_fts_2406_v2</t>
+  </si>
+  <si>
+    <t>ng_lf_pretas_202406_2_fts_v2</t>
   </si>
 </sst>
 </file>
@@ -1077,9 +1068,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1145,10 +1136,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O1" s="41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="47.25">
@@ -1156,7 +1147,7 @@
         <v>137</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>14</v>
@@ -1275,10 +1266,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="29"/>
@@ -1321,7 +1312,7 @@
         <v>100</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>107</v>
@@ -1338,7 +1329,7 @@
       <c r="M9" s="17"/>
       <c r="N9" s="22"/>
       <c r="O9" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="16" customFormat="1">
@@ -1406,26 +1397,28 @@
       <c r="L12" s="11"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:15" s="16" customFormat="1">
+    <row r="13" spans="1:15" s="16" customFormat="1" ht="31.5">
       <c r="A13" s="29" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="13"/>
+      <c r="F13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>119</v>
+      </c>
       <c r="H13" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="I13" s="30" t="s">
-        <v>102</v>
-      </c>
+      <c r="I13" s="30"/>
       <c r="J13" s="29" t="s">
         <v>16</v>
       </c>
@@ -1433,51 +1426,47 @@
       <c r="L13" s="30"/>
       <c r="M13" s="29"/>
     </row>
-    <row r="14" spans="1:15" s="16" customFormat="1" ht="47.25">
+    <row r="14" spans="1:15" s="16" customFormat="1">
       <c r="A14" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="D14" s="31"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>119</v>
-      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="I14" s="30" t="s">
-        <v>161</v>
-      </c>
+      <c r="I14" s="30"/>
       <c r="J14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
       <c r="M14" s="29"/>
     </row>
-    <row r="15" spans="1:15" s="16" customFormat="1">
+    <row r="15" spans="1:15" s="16" customFormat="1" ht="31.5">
       <c r="A15" s="29" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="30" t="s">
         <v>112</v>
       </c>
@@ -1489,24 +1478,22 @@
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
     </row>
-    <row r="16" spans="1:15" s="16" customFormat="1" ht="31.5">
+    <row r="16" spans="1:15" s="16" customFormat="1">
       <c r="A16" s="29" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>31</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D16" s="31"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
       <c r="G16" s="33"/>
       <c r="H16" s="30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I16" s="30"/>
       <c r="J16" s="29" t="s">
@@ -1516,12 +1503,12 @@
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
     </row>
-    <row r="17" spans="1:13" s="16" customFormat="1">
+    <row r="17" spans="1:13" s="16" customFormat="1" ht="31.5">
       <c r="A17" s="29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>34</v>
@@ -1531,7 +1518,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="33"/>
       <c r="H17" s="30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I17" s="30"/>
       <c r="J17" s="29" t="s">
@@ -1541,24 +1528,24 @@
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
     </row>
-    <row r="18" spans="1:13" s="16" customFormat="1" ht="31.5">
+    <row r="18" spans="1:13" s="16" customFormat="1">
       <c r="A18" s="29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>34</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C18" s="31"/>
       <c r="D18" s="31"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="33"/>
       <c r="H18" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="I18" s="30"/>
+        <v>112</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>39</v>
+      </c>
       <c r="J18" s="29" t="s">
         <v>16</v>
       </c>
@@ -1566,97 +1553,99 @@
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
     </row>
-    <row r="19" spans="1:13" s="16" customFormat="1">
+    <row r="19" spans="1:13" s="16" customFormat="1" ht="63">
       <c r="A19" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+        <v>40</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="36"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="33"/>
       <c r="H19" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="I19" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="29" t="s">
-        <v>16</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
     </row>
-    <row r="20" spans="1:13" s="16" customFormat="1" ht="63">
+    <row r="20" spans="1:13" s="16" customFormat="1" ht="31.5">
       <c r="A20" s="29" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="33"/>
       <c r="H20" s="30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
+      <c r="J20" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
     </row>
-    <row r="21" spans="1:13" s="16" customFormat="1" ht="31.5">
+    <row r="21" spans="1:13" ht="31.5">
       <c r="A21" s="29" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="33"/>
+        <v>47</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="36"/>
       <c r="H21" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="I21" s="29"/>
+      <c r="I21" s="34"/>
       <c r="J21" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-    </row>
-    <row r="22" spans="1:13" ht="31.5">
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="29" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
       <c r="G22" s="36"/>
       <c r="H22" s="30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I22" s="34"/>
       <c r="J22" s="29" t="s">
@@ -1666,24 +1655,24 @@
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" ht="31.5">
       <c r="A23" s="29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E23" s="34"/>
       <c r="F23" s="34"/>
       <c r="G23" s="36"/>
       <c r="H23" s="30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I23" s="34"/>
       <c r="J23" s="29" t="s">
@@ -1693,102 +1682,93 @@
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:13" ht="31.5">
+    <row r="24" spans="1:13">
       <c r="A24" s="29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>35</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
       <c r="G24" s="36"/>
       <c r="H24" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="29" t="s">
-        <v>16</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="34"/>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
       <c r="M24" s="34"/>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="29" t="s">
+    <row r="25" spans="1:13" ht="56.25" customHeight="1">
+      <c r="A25" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-    </row>
-    <row r="26" spans="1:13" ht="56.25" customHeight="1">
+      <c r="B25" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>57</v>
       </c>
       <c r="H26" s="39"/>
-      <c r="I26" s="28" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="H27" s="39"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="16" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="H28" s="39"/>
+        <v>139</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>123</v>
+      </c>
       <c r="I28" s="28"/>
+      <c r="J28" s="27" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="H29" s="30" t="s">
         <v>123</v>
@@ -1800,13 +1780,13 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="H30" s="30" t="s">
         <v>123</v>
@@ -1818,13 +1798,13 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="16" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="H31" s="30" t="s">
         <v>123</v>
@@ -1836,16 +1816,16 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="16" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="I32" s="28"/>
       <c r="J32" s="27" t="s">
@@ -1854,16 +1834,16 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="16" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I33" s="28"/>
       <c r="J33" s="27" t="s">
@@ -1875,10 +1855,10 @@
         <v>105</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H34" s="30" t="s">
         <v>123</v>
@@ -1890,63 +1870,45 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="16" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="H35" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="I35" s="28"/>
-      <c r="J35" s="27" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>59</v>
-      </c>
+      <c r="A36" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
+      <c r="A37" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="27" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3464,8 +3426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3492,10 +3454,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="16" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>97</v>

--- a/LF/PreTAS/Nigeria/june 2024/ng_lf_pretas_202406_2_resultat_fts.xlsx
+++ b/LF/PreTAS/Nigeria/june 2024/ng_lf_pretas_202406_2_resultat_fts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Nigeria\june 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95E6B9E-5D21-420B-981E-BEC1BCA6B56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C904091-C565-4E0E-AE69-49B8CD85A29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="161">
   <si>
     <t>type</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>ng_lf_pretas_202406_2_fts_v2</t>
+  </si>
+  <si>
+    <t>barcode</t>
   </si>
 </sst>
 </file>
@@ -1070,11 +1073,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1399,7 +1402,7 @@
     </row>
     <row r="13" spans="1:15" s="16" customFormat="1" ht="31.5">
       <c r="A13" s="29" t="s">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>25</v>
@@ -3426,7 +3429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
